--- a/ESL/ESLttl.xlsx
+++ b/ESL/ESLttl.xlsx
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>

--- a/ESL/ESLttl.xlsx
+++ b/ESL/ESLttl.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,52 +502,52 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ESL 120</t>
+          <t>ESL 104</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ESL 14</t>
+          <t>ESL 105</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ESL 152</t>
+          <t>ESL 120</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -559,14 +559,14 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ESL 20</t>
+          <t>ESL 14</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -578,95 +578,114 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ESL 21A</t>
+          <t>ESL 152</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ESL 3</t>
+          <t>ESL 20</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ESL 4</t>
+          <t>ESL 21B</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ESL 5</t>
+          <t>ESL 3</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
-        <v>18</v>
-      </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>ESL 35</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>ESL 7</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
         <v>25</v>
       </c>
     </row>

--- a/ESL/ESLttl.xlsx
+++ b/ESL/ESLttl.xlsx
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
